--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>SYMBOL_2000</t>
   </si>
   <si>
-    <t>YYYYN3DD&amp;E</t>
+    <t>GGGKN3DD&amp;E</t>
   </si>
 </sst>
 </file>
@@ -559,34 +559,34 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -818,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -934,7 +934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw3eraj\projects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t>VIN</t>
   </si>
@@ -201,6 +201,57 @@
   </si>
   <si>
     <t>SYMBOL_2000</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
+    <t>BI003</t>
+  </si>
+  <si>
+    <t>PD003</t>
+  </si>
+  <si>
+    <t>UM003</t>
+  </si>
+  <si>
+    <t>MP003</t>
+  </si>
+  <si>
+    <t>BI004</t>
+  </si>
+  <si>
+    <t>PD004</t>
+  </si>
+  <si>
+    <t>UM004</t>
+  </si>
+  <si>
+    <t>MP004</t>
   </si>
 </sst>
 </file>
@@ -536,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,8 +1165,478 @@
         <v>48</v>
       </c>
     </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>214</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>20010101</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>214</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>20000101</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>214</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>20150101</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>214</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>20190101</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjBkZjlhOWJkLWZlYjEtNGIwMS05MjIyLTRlMWUzMWIxNDk4NCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGd3M2VyYWo8L1VzZXJOYW1lPjxEYXRlVGltZT4xLzMxLzIwMTkgODoyODoyNCBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPkNvbmZpZGVudGlhbDwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="0df9a9bd-feb1-4b01-9222-4e1e31b14984" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{564C8E0F-BFCC-4CB9-8D77-A528EAEC6000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB92B8C-E3FD-42B1-ABC7-28DE665FCA38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>